--- a/src/main/resources/190-wanxin-p2p/content-search-service_structure.xlsx
+++ b/src/main/resources/190-wanxin-p2p/content-search-service_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="85">
   <si>
     <t>类名</t>
   </si>
@@ -127,7 +127,7 @@
     <t>com.wanxin.search.common.intercept.GlobalExceptionHandler</t>
   </si>
   <si>
-    <t>exceptionGet(javax.servlet.http.HttpServletRequest)</t>
+    <t>exceptionGet(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Exception)</t>
   </si>
   <si>
     <t>com.wanxin.common.domain.RestResponse</t>
@@ -184,7 +184,7 @@
     <t>com.wanxin.search.service.ContentSearchService</t>
   </si>
   <si>
-    <t>queryProjectIndex(com.wanxin.api.search.model.ProjectQueryParamsDTO)</t>
+    <t>queryProjectIndex(com.wanxin.api.search.model.ProjectQueryParamsDTO,java.lang.Integer,java.lang.Integer,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>com.wanxin.common.domain.PageVO</t>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>源操作签名</t>
-  </si>
-  <si>
-    <t>queryProjectIndex(com.wanxin.api.search.model.ProjectQueryParamsDTO,java.lang.Integer,java.lang.Integer,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>目标接口</t>
@@ -2136,13 +2133,13 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>78</v>
@@ -2169,10 +2166,10 @@
         <v>74</v>
       </c>
       <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>77</v>
@@ -2199,10 +2196,10 @@
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>77</v>
@@ -2232,7 +2229,7 @@
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>77</v>
@@ -2262,7 +2259,7 @@
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>77</v>
